--- a/_data/powerbi/ppgcs_prodpubl_discentcollab_2017_2024.xlsx
+++ b/_data/powerbi/ppgcs_prodpubl_discentcollab_2017_2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,13 +555,13 @@
         <v>1610</v>
       </c>
       <c r="I3" t="n">
-        <v>805</v>
+        <v>435</v>
       </c>
       <c r="J3" t="n">
-        <v>9225</v>
+        <v>8855</v>
       </c>
       <c r="K3" t="n">
-        <v>11.11</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="4">
@@ -703,124 +703,124 @@
         <v>290</v>
       </c>
       <c r="I7" t="n">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="J7" t="n">
-        <v>3845</v>
+        <v>3755</v>
       </c>
       <c r="K7" t="n">
-        <v>57.89</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Rodrigo Pedro Pinto Soares</t>
+          <t>Lis Ribeiro do Valle Antonelli</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540</v>
+        <v>310</v>
       </c>
       <c r="C8" t="n">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="D8" t="n">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="E8" t="n">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="F8" t="n">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="G8" t="n">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="H8" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="I8" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>3710</v>
+        <v>3660</v>
       </c>
       <c r="K8" t="n">
-        <v>10.34</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Lis Ribeiro do Valle Antonelli</t>
+          <t>Rodrigo Correa de Oliveira</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>310</v>
+        <v>1290</v>
       </c>
       <c r="C9" t="n">
-        <v>630</v>
+        <v>360</v>
       </c>
       <c r="D9" t="n">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="E9" t="n">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="F9" t="n">
-        <v>670</v>
+        <v>360</v>
       </c>
       <c r="G9" t="n">
-        <v>530</v>
+        <v>230</v>
       </c>
       <c r="H9" t="n">
         <v>270</v>
       </c>
       <c r="I9" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3660</v>
+        <v>3640</v>
       </c>
       <c r="K9" t="n">
-        <v>14.89</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Rodrigo Correa de Oliveira</t>
+          <t>Rodrigo Pedro Pinto Soares</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1290</v>
+        <v>540</v>
       </c>
       <c r="C10" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="D10" t="n">
-        <v>770</v>
+        <v>620</v>
       </c>
       <c r="E10" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="F10" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="G10" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="H10" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J10" t="n">
-        <v>3640</v>
+        <v>3620</v>
       </c>
       <c r="K10" t="n">
-        <v>8.33</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="11">
@@ -937,75 +937,75 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Celia Maria Ferreira Gontijo</t>
+          <t>Antonio Mauro Rezende</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>230</v>
+      </c>
+      <c r="C14" t="n">
+        <v>360</v>
+      </c>
+      <c r="D14" t="n">
         <v>480</v>
       </c>
-      <c r="C14" t="n">
-        <v>585</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>560</v>
+      </c>
+      <c r="F14" t="n">
+        <v>450</v>
+      </c>
+      <c r="G14" t="n">
+        <v>280</v>
+      </c>
+      <c r="H14" t="n">
         <v>390</v>
       </c>
-      <c r="E14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F14" t="n">
-        <v>260</v>
-      </c>
-      <c r="G14" t="n">
-        <v>270</v>
-      </c>
-      <c r="H14" t="n">
-        <v>260</v>
-      </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>2785</v>
+        <v>2765</v>
       </c>
       <c r="K14" t="n">
-        <v>19.51</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Antonio Mauro Rezende</t>
+          <t>Celia Maria Ferreira Gontijo</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="C15" t="n">
-        <v>360</v>
+        <v>585</v>
       </c>
       <c r="D15" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="E15" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="F15" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="G15" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H15" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2765</v>
+        <v>2745</v>
       </c>
       <c r="K15" t="n">
-        <v>7.14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1159,581 +1159,581 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Márcio Sobreira Silva Araújo</t>
+          <t>Cristiana Ferreira Alves de Brito</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145</v>
+        <v>370</v>
       </c>
       <c r="C20" t="n">
-        <v>665</v>
+        <v>440</v>
       </c>
       <c r="D20" t="n">
-        <v>180</v>
+        <v>530</v>
       </c>
       <c r="E20" t="n">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F20" t="n">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="G20" t="n">
-        <v>475</v>
+        <v>160</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="I20" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2285</v>
+        <v>2270</v>
       </c>
       <c r="K20" t="n">
-        <v>25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cristiana Ferreira Alves de Brito</t>
+          <t>Alessandra Aparecida Guarneri</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C21" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="E21" t="n">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="F21" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G21" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="H21" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J21" t="n">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="K21" t="n">
-        <v>43.75</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Alessandra Aparecida Guarneri</t>
+          <t>Marcelo Antonio Pascoal Xavier</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="C22" t="n">
-        <v>220</v>
+        <v>545</v>
       </c>
       <c r="D22" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F22" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="G22" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="H22" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="I22" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="J22" t="n">
-        <v>2260</v>
+        <v>2145</v>
       </c>
       <c r="K22" t="n">
-        <v>22.22</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Antonio Pascoal Xavier</t>
+          <t>Márcio Sobreira Silva Araújo</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="C23" t="n">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E23" t="n">
-        <v>435</v>
+        <v>215</v>
       </c>
       <c r="F23" t="n">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="G23" t="n">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="H23" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="I23" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="J23" t="n">
-        <v>2145</v>
+        <v>2125</v>
       </c>
       <c r="K23" t="n">
-        <v>30.56</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Taís Nóbrega de Sousa</t>
+          <t>Rubens Lima do Monte Neto</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C24" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="D24" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="F24" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="G24" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="H24" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="I24" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="J24" t="n">
-        <v>2130</v>
+        <v>2105</v>
       </c>
       <c r="K24" t="n">
-        <v>62.96</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Rubens Lima do Monte Neto</t>
+          <t>Marina de Moraes Mourão</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="C25" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="E25" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="F25" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="G25" t="n">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H25" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="I25" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="K25" t="n">
-        <v>17.65</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Pedro Augusto Alves</t>
+          <t>Ana Lúcia Teles Rabello</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="C26" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D26" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="E26" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="F26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="H26" t="n">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2105</v>
+        <v>2090</v>
       </c>
       <c r="K26" t="n">
-        <v>65.62</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Marina de Moraes Mourão</t>
+          <t>Taís Nóbrega de Sousa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>460</v>
+        <v>160</v>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="D27" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="E27" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="F27" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="G27" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="H27" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J27" t="n">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="K27" t="n">
-        <v>19.35</v>
+        <v>65.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ana Lúcia Teles Rabello</t>
+          <t>Edward José de Oliveira</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>610</v>
+        <v>110</v>
       </c>
       <c r="C28" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>610</v>
+        <v>380</v>
       </c>
       <c r="E28" t="n">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="G28" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2090</v>
+        <v>1955</v>
       </c>
       <c r="K28" t="n">
-        <v>58.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Edward José de Oliveira</t>
+          <t>Luzia Helena Carvalho</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="D29" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="E29" t="n">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="F29" t="n">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="G29" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="H29" t="n">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1955</v>
+        <v>1880</v>
       </c>
       <c r="K29" t="n">
-        <v>27.27</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Luzia Helena Carvalho</t>
+          <t>Roney Santos Coimbra</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="C30" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>170</v>
       </c>
-      <c r="E30" t="n">
-        <v>360</v>
-      </c>
       <c r="F30" t="n">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="G30" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="H30" t="n">
+        <v>420</v>
+      </c>
+      <c r="I30" t="n">
         <v>80</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="K30" t="n">
-        <v>72.73</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Roney Santos Coimbra</t>
+          <t>Paulo Marcos Zech Coelho</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>520</v>
+        <v>375</v>
       </c>
       <c r="C31" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="E31" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="F31" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="I31" t="n">
         <v>80</v>
       </c>
       <c r="J31" t="n">
-        <v>1850</v>
+        <v>1730</v>
       </c>
       <c r="K31" t="n">
-        <v>12.5</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Paulo Marcos Zech Coelho</t>
+          <t>Gustavo Fontes Paz</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="C32" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="D32" t="n">
-        <v>435</v>
+        <v>170</v>
       </c>
       <c r="E32" t="n">
         <v>260</v>
       </c>
       <c r="F32" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="H32" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="I32" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="K32" t="n">
-        <v>24.24</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Gustavo Fontes Paz</t>
+          <t>Roberta Lima Caldeira</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="C33" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="D33" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F33" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G33" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="H33" t="n">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J33" t="n">
-        <v>1710</v>
+        <v>1685</v>
       </c>
       <c r="K33" t="n">
-        <v>26.09</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Roberta Lima Caldeira</t>
+          <t>Marcelo Gustavo Lorenzo</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="C34" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D34" t="n">
+        <v>170</v>
+      </c>
+      <c r="E34" t="n">
+        <v>510</v>
+      </c>
+      <c r="F34" t="n">
+        <v>440</v>
+      </c>
+      <c r="G34" t="n">
+        <v>170</v>
+      </c>
+      <c r="H34" t="n">
         <v>80</v>
       </c>
-      <c r="E34" t="n">
-        <v>280</v>
-      </c>
-      <c r="F34" t="n">
-        <v>250</v>
-      </c>
-      <c r="G34" t="n">
-        <v>220</v>
-      </c>
-      <c r="H34" t="n">
-        <v>355</v>
-      </c>
       <c r="I34" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1685</v>
+        <v>1630</v>
       </c>
       <c r="K34" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Gustavo Lorenzo</t>
+          <t>Jeronimo Conceição Ruiz</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="C35" t="n">
+        <v>220</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="n">
+        <v>410</v>
+      </c>
+      <c r="F35" t="n">
+        <v>330</v>
+      </c>
+      <c r="G35" t="n">
         <v>80</v>
-      </c>
-      <c r="D35" t="n">
-        <v>170</v>
-      </c>
-      <c r="E35" t="n">
-        <v>510</v>
-      </c>
-      <c r="F35" t="n">
-        <v>440</v>
-      </c>
-      <c r="G35" t="n">
-        <v>170</v>
       </c>
       <c r="H35" t="n">
         <v>80</v>
@@ -1745,457 +1745,457 @@
         <v>1630</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Jeronimo Conceição Ruiz</t>
+          <t>Caroline Furtado Junqueira</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>170</v>
+      </c>
+      <c r="C36" t="n">
+        <v>170</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>360</v>
+      </c>
+      <c r="F36" t="n">
+        <v>240</v>
+      </c>
+      <c r="G36" t="n">
+        <v>200</v>
+      </c>
+      <c r="H36" t="n">
         <v>450</v>
       </c>
-      <c r="C36" t="n">
-        <v>220</v>
-      </c>
-      <c r="D36" t="n">
-        <v>60</v>
-      </c>
-      <c r="E36" t="n">
-        <v>410</v>
-      </c>
-      <c r="F36" t="n">
-        <v>330</v>
-      </c>
-      <c r="G36" t="n">
-        <v>80</v>
-      </c>
-      <c r="H36" t="n">
-        <v>80</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1630</v>
+        <v>1590</v>
       </c>
       <c r="K36" t="n">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Caroline Furtado Junqueira</t>
+          <t>Carlos Eduardo Calzavara Silva</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E37" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F37" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="G37" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="H37" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J37" t="n">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Calzavara Silva</t>
+          <t>Cristina Toscano Fonseca</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C38" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="D38" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E38" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="F38" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="G38" t="n">
+        <v>240</v>
+      </c>
+      <c r="H38" t="n">
         <v>350</v>
       </c>
-      <c r="H38" t="n">
-        <v>330</v>
-      </c>
       <c r="I38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1560</v>
+        <v>1450</v>
       </c>
       <c r="K38" t="n">
-        <v>45.45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Cristina Toscano Fonseca</t>
+          <t>Paloma Helena Fernandes Shimabukuro</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C39" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D39" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="F39" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="G39" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="H39" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J39" t="n">
-        <v>1450</v>
+        <v>1415</v>
       </c>
       <c r="K39" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Paloma Helena Fernandes Shimabukuro</t>
+          <t>Flora Satiko Kano</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C40" t="n">
+        <v>270</v>
+      </c>
+      <c r="D40" t="n">
         <v>170</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
       <c r="E40" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F40" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="G40" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="H40" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="I40" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="K40" t="n">
-        <v>16</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Rita de Cássia Moreira de Souza</t>
+          <t>Lileia Gonçalves Diotaiuti</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="C41" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D41" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="F41" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G41" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="H41" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1405</v>
+        <v>1305</v>
       </c>
       <c r="K41" t="n">
-        <v>4.35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Flora Satiko Kano</t>
+          <t>Rafaella Fortini Grenfell e Queiroz</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="D42" t="n">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="E42" t="n">
+        <v>90</v>
+      </c>
+      <c r="F42" t="n">
+        <v>220</v>
+      </c>
+      <c r="G42" t="n">
         <v>260</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>250</v>
       </c>
-      <c r="G42" t="n">
-        <v>180</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>80</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1390</v>
+        <v>1195</v>
       </c>
       <c r="K42" t="n">
-        <v>87.5</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Lileia Gonçalves Diotaiuti</t>
+          <t>Tânia Maria de Almeida Alves</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C43" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E43" t="n">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G43" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1305</v>
+        <v>1185</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Rafaella Fortini Grenfell e Queiroz</t>
+          <t>Érica Alessandra Rocha Alves</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C44" t="n">
+        <v>165</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>230</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="n">
         <v>60</v>
       </c>
-      <c r="D44" t="n">
-        <v>235</v>
-      </c>
-      <c r="E44" t="n">
-        <v>90</v>
-      </c>
-      <c r="F44" t="n">
-        <v>220</v>
-      </c>
-      <c r="G44" t="n">
-        <v>260</v>
-      </c>
       <c r="H44" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="I44" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1195</v>
+        <v>965</v>
       </c>
       <c r="K44" t="n">
-        <v>60.87</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Tânia Maria de Almeida Alves</t>
+          <t>Edelberto Santos Dias</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E45" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F45" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H45" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1185</v>
+        <v>900</v>
       </c>
       <c r="K45" t="n">
-        <v>31.82</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Rosiane Aparecida da Silva Pereira</t>
+          <t>Daniel Moreira de Avelar</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C46" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D46" t="n">
         <v>190</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G46" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="H46" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="I46" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>980</v>
+        <v>895</v>
       </c>
       <c r="K46" t="n">
-        <v>28.57</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Érica Alessandra Rocha Alves</t>
+          <t>Alexandre de Magalhaes Vieira Machado</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="C47" t="n">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E47" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="G47" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>965</v>
+        <v>875</v>
       </c>
       <c r="K47" t="n">
-        <v>26.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Edelberto Santos Dias</t>
+          <t>Erika Michalsky Monteiro</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2205,7 +2205,7 @@
         <v>170</v>
       </c>
       <c r="D48" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E48" t="n">
         <v>130</v>
@@ -2217,311 +2217,200 @@
         <v>80</v>
       </c>
       <c r="H48" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K48" t="n">
-        <v>29.41</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Daniel Moreira de Avelar</t>
+          <t>Carina Margonari de Souza</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C49" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F49" t="n">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="G49" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="H49" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>895</v>
+        <v>790</v>
       </c>
       <c r="K49" t="n">
-        <v>52.94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Alexandre de Magalhaes Vieira Machado</t>
+          <t>Álvaro Gil Araújo Ferreira</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D50" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="F50" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>875</v>
+        <v>790</v>
       </c>
       <c r="K50" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Erika Michalsky Monteiro</t>
+          <t>Jaquelline Germano de Oliveira</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D51" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E51" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
+        <v>140</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>80</v>
       </c>
-      <c r="H51" t="n">
-        <v>120</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="K51" t="n">
-        <v>42.86</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Carina Margonari de Souza</t>
+          <t>Soraya Torres Gaze Jangola</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>80</v>
       </c>
       <c r="F52" t="n">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="G52" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>790</v>
+        <v>540</v>
       </c>
       <c r="K52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Gil Araújo Ferreira</t>
+          <t>Marco Antônio da Silva Campos</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C53" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D53" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="G53" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H53" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>790</v>
+        <v>495</v>
       </c>
       <c r="K53" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Jaquelline Germano de Oliveira</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>160</v>
-      </c>
-      <c r="D54" t="n">
-        <v>60</v>
-      </c>
-      <c r="E54" t="n">
-        <v>290</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>140</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>80</v>
-      </c>
-      <c r="J54" t="n">
-        <v>730</v>
-      </c>
-      <c r="K54" t="n">
-        <v>28.57</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Soraya Torres Gaze Jangola</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>95</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>80</v>
-      </c>
-      <c r="F55" t="n">
-        <v>175</v>
-      </c>
-      <c r="G55" t="n">
-        <v>100</v>
-      </c>
-      <c r="H55" t="n">
-        <v>180</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>630</v>
-      </c>
-      <c r="K55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Marco Antônio da Silva Campos</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>60</v>
-      </c>
-      <c r="C56" t="n">
-        <v>95</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>100</v>
-      </c>
-      <c r="F56" t="n">
-        <v>140</v>
-      </c>
-      <c r="G56" t="n">
-        <v>20</v>
-      </c>
-      <c r="H56" t="n">
-        <v>80</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>495</v>
-      </c>
-      <c r="K56" t="n">
         <v>23.08</v>
       </c>
     </row>

--- a/_data/powerbi/ppgcs_prodpubl_discentcollab_2017_2024.xlsx
+++ b/_data/powerbi/ppgcs_prodpubl_discentcollab_2017_2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,13 +555,13 @@
         <v>1610</v>
       </c>
       <c r="I3" t="n">
-        <v>435</v>
+        <v>805</v>
       </c>
       <c r="J3" t="n">
-        <v>8855</v>
+        <v>9225</v>
       </c>
       <c r="K3" t="n">
-        <v>11.63</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="4">
@@ -703,124 +703,124 @@
         <v>290</v>
       </c>
       <c r="I7" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="J7" t="n">
-        <v>3755</v>
+        <v>3845</v>
       </c>
       <c r="K7" t="n">
-        <v>57.14</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Lis Ribeiro do Valle Antonelli</t>
+          <t>Rodrigo Pedro Pinto Soares</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="C8" t="n">
-        <v>630</v>
+        <v>560</v>
       </c>
       <c r="D8" t="n">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="E8" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="F8" t="n">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="G8" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="H8" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="I8" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="J8" t="n">
-        <v>3660</v>
+        <v>3710</v>
       </c>
       <c r="K8" t="n">
-        <v>14.89</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Rodrigo Correa de Oliveira</t>
+          <t>Lis Ribeiro do Valle Antonelli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1290</v>
+        <v>310</v>
       </c>
       <c r="C9" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="D9" t="n">
-        <v>770</v>
+        <v>690</v>
       </c>
       <c r="E9" t="n">
-        <v>360</v>
+        <v>470</v>
       </c>
       <c r="F9" t="n">
-        <v>360</v>
+        <v>670</v>
       </c>
       <c r="G9" t="n">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="H9" t="n">
         <v>270</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J9" t="n">
-        <v>3640</v>
+        <v>3660</v>
       </c>
       <c r="K9" t="n">
-        <v>8.33</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Rodrigo Pedro Pinto Soares</t>
+          <t>Rodrigo Correa de Oliveira</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540</v>
+        <v>1290</v>
       </c>
       <c r="C10" t="n">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="D10" t="n">
-        <v>620</v>
+        <v>770</v>
       </c>
       <c r="E10" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="F10" t="n">
-        <v>750</v>
+        <v>360</v>
       </c>
       <c r="G10" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="H10" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="I10" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3620</v>
+        <v>3640</v>
       </c>
       <c r="K10" t="n">
-        <v>10.53</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="11">
@@ -937,75 +937,75 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Antonio Mauro Rezende</t>
+          <t>Celia Maria Ferreira Gontijo</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="C14" t="n">
-        <v>360</v>
+        <v>585</v>
       </c>
       <c r="D14" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="E14" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="F14" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="G14" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H14" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>2765</v>
+        <v>2785</v>
       </c>
       <c r="K14" t="n">
-        <v>7.14</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Celia Maria Ferreira Gontijo</t>
+          <t>Antonio Mauro Rezende</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>230</v>
+      </c>
+      <c r="C15" t="n">
+        <v>360</v>
+      </c>
+      <c r="D15" t="n">
         <v>480</v>
       </c>
-      <c r="C15" t="n">
-        <v>585</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>560</v>
+      </c>
+      <c r="F15" t="n">
+        <v>450</v>
+      </c>
+      <c r="G15" t="n">
+        <v>280</v>
+      </c>
+      <c r="H15" t="n">
         <v>390</v>
       </c>
-      <c r="E15" t="n">
-        <v>500</v>
-      </c>
-      <c r="F15" t="n">
-        <v>260</v>
-      </c>
-      <c r="G15" t="n">
-        <v>270</v>
-      </c>
-      <c r="H15" t="n">
-        <v>260</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>2745</v>
+        <v>2765</v>
       </c>
       <c r="K15" t="n">
-        <v>20</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="16">
@@ -1159,581 +1159,581 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Cristiana Ferreira Alves de Brito</t>
+          <t>Márcio Sobreira Silva Araújo</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="C20" t="n">
-        <v>440</v>
+        <v>665</v>
       </c>
       <c r="D20" t="n">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="E20" t="n">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="F20" t="n">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="G20" t="n">
-        <v>160</v>
+        <v>475</v>
       </c>
       <c r="H20" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="J20" t="n">
-        <v>2270</v>
+        <v>2285</v>
       </c>
       <c r="K20" t="n">
-        <v>43.75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Alessandra Aparecida Guarneri</t>
+          <t>Cristiana Ferreira Alves de Brito</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C21" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="D21" t="n">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="E21" t="n">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="F21" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G21" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="H21" t="n">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="I21" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2260</v>
+        <v>2270</v>
       </c>
       <c r="K21" t="n">
-        <v>22.22</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Antonio Pascoal Xavier</t>
+          <t>Alessandra Aparecida Guarneri</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="C22" t="n">
-        <v>545</v>
+        <v>220</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E22" t="n">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F22" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="G22" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="H22" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="I22" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J22" t="n">
-        <v>2145</v>
+        <v>2260</v>
       </c>
       <c r="K22" t="n">
-        <v>30.56</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Márcio Sobreira Silva Araújo</t>
+          <t>Marcelo Antonio Pascoal Xavier</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>665</v>
+        <v>545</v>
       </c>
       <c r="D23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>215</v>
+        <v>435</v>
       </c>
       <c r="F23" t="n">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="G23" t="n">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="H23" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="I23" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="J23" t="n">
-        <v>2125</v>
+        <v>2145</v>
       </c>
       <c r="K23" t="n">
-        <v>23.53</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Rubens Lima do Monte Neto</t>
+          <t>Taís Nóbrega de Sousa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="E24" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="F24" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G24" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="H24" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="I24" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="J24" t="n">
-        <v>2105</v>
+        <v>2130</v>
       </c>
       <c r="K24" t="n">
-        <v>17.65</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Marina de Moraes Mourão</t>
+          <t>Rubens Lima do Monte Neto</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="C25" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="D25" t="n">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
+        <v>280</v>
+      </c>
+      <c r="F25" t="n">
+        <v>420</v>
+      </c>
+      <c r="G25" t="n">
+        <v>425</v>
+      </c>
+      <c r="H25" t="n">
         <v>330</v>
       </c>
-      <c r="F25" t="n">
-        <v>220</v>
-      </c>
-      <c r="G25" t="n">
-        <v>410</v>
-      </c>
-      <c r="H25" t="n">
-        <v>200</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J25" t="n">
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="K25" t="n">
-        <v>19.35</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Ana Lúcia Teles Rabello</t>
+          <t>Pedro Augusto Alves</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D26" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="E26" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G26" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J26" t="n">
-        <v>2090</v>
+        <v>2105</v>
       </c>
       <c r="K26" t="n">
-        <v>58.82</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Taís Nóbrega de Sousa</t>
+          <t>Marina de Moraes Mourão</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="C27" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="D27" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="E27" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F27" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G27" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="H27" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I27" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2090</v>
+        <v>2100</v>
       </c>
       <c r="K27" t="n">
-        <v>65.38</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Edward José de Oliveira</t>
+          <t>Ana Lúcia Teles Rabello</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="C28" t="n">
+        <v>210</v>
+      </c>
+      <c r="D28" t="n">
+        <v>610</v>
+      </c>
+      <c r="E28" t="n">
+        <v>360</v>
+      </c>
+      <c r="F28" t="n">
         <v>100</v>
       </c>
-      <c r="D28" t="n">
-        <v>380</v>
-      </c>
-      <c r="E28" t="n">
-        <v>395</v>
-      </c>
-      <c r="F28" t="n">
-        <v>230</v>
-      </c>
       <c r="G28" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="H28" t="n">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1955</v>
+        <v>2090</v>
       </c>
       <c r="K28" t="n">
-        <v>27.27</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Luzia Helena Carvalho</t>
+          <t>Edward José de Oliveira</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="C29" t="n">
+        <v>100</v>
+      </c>
+      <c r="D29" t="n">
+        <v>380</v>
+      </c>
+      <c r="E29" t="n">
+        <v>395</v>
+      </c>
+      <c r="F29" t="n">
+        <v>230</v>
+      </c>
+      <c r="G29" t="n">
         <v>350</v>
       </c>
-      <c r="D29" t="n">
-        <v>170</v>
-      </c>
-      <c r="E29" t="n">
-        <v>360</v>
-      </c>
-      <c r="F29" t="n">
-        <v>410</v>
-      </c>
-      <c r="G29" t="n">
-        <v>260</v>
-      </c>
       <c r="H29" t="n">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1880</v>
+        <v>1955</v>
       </c>
       <c r="K29" t="n">
-        <v>72.73</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Roney Santos Coimbra</t>
+          <t>Luzia Helena Carvalho</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="C30" t="n">
+        <v>350</v>
+      </c>
+      <c r="D30" t="n">
+        <v>170</v>
+      </c>
+      <c r="E30" t="n">
+        <v>360</v>
+      </c>
+      <c r="F30" t="n">
         <v>410</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>170</v>
-      </c>
-      <c r="F30" t="n">
-        <v>160</v>
-      </c>
       <c r="G30" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="H30" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="I30" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1850</v>
+        <v>1880</v>
       </c>
       <c r="K30" t="n">
-        <v>12.5</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Paulo Marcos Zech Coelho</t>
+          <t>Roney Santos Coimbra</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>375</v>
+        <v>520</v>
       </c>
       <c r="C31" t="n">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="D31" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="F31" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H31" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="I31" t="n">
         <v>80</v>
       </c>
       <c r="J31" t="n">
-        <v>1730</v>
+        <v>1850</v>
       </c>
       <c r="K31" t="n">
-        <v>24.24</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gustavo Fontes Paz</t>
+          <t>Paulo Marcos Zech Coelho</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="D32" t="n">
-        <v>170</v>
+        <v>435</v>
       </c>
       <c r="E32" t="n">
         <v>260</v>
       </c>
       <c r="F32" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="G32" t="n">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="H32" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J32" t="n">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="K32" t="n">
-        <v>26.09</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Roberta Lima Caldeira</t>
+          <t>Gustavo Fontes Paz</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="C33" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="D33" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E33" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G33" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="H33" t="n">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="I33" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1685</v>
+        <v>1710</v>
       </c>
       <c r="K33" t="n">
-        <v>16.67</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Gustavo Lorenzo</t>
+          <t>Roberta Lima Caldeira</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="C34" t="n">
+        <v>110</v>
+      </c>
+      <c r="D34" t="n">
         <v>80</v>
       </c>
-      <c r="D34" t="n">
-        <v>170</v>
-      </c>
       <c r="E34" t="n">
-        <v>510</v>
+        <v>280</v>
       </c>
       <c r="F34" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="G34" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="H34" t="n">
+        <v>355</v>
+      </c>
+      <c r="I34" t="n">
         <v>80</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>1630</v>
+        <v>1685</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Jeronimo Conceição Ruiz</t>
+          <t>Marcelo Gustavo Lorenzo</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="C35" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="E35" t="n">
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="F35" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="G35" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="H35" t="n">
         <v>80</v>
@@ -1745,457 +1745,457 @@
         <v>1630</v>
       </c>
       <c r="K35" t="n">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Caroline Furtado Junqueira</t>
+          <t>Jeronimo Conceição Ruiz</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="C36" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E36" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F36" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="G36" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H36" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1590</v>
+        <v>1630</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Calzavara Silva</t>
+          <t>Caroline Furtado Junqueira</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="C37" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="D37" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F37" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="G37" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="H37" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="I37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1560</v>
+        <v>1590</v>
       </c>
       <c r="K37" t="n">
-        <v>45.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cristina Toscano Fonseca</t>
+          <t>Carlos Eduardo Calzavara Silva</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D38" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="E38" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="F38" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="G38" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="H38" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J38" t="n">
-        <v>1450</v>
+        <v>1560</v>
       </c>
       <c r="K38" t="n">
-        <v>30</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Paloma Helena Fernandes Shimabukuro</t>
+          <t>Cristina Toscano Fonseca</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C39" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E39" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="F39" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G39" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="H39" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="I39" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1415</v>
+        <v>1450</v>
       </c>
       <c r="K39" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Flora Satiko Kano</t>
+          <t>Paloma Helena Fernandes Shimabukuro</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C40" t="n">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>290</v>
+      </c>
+      <c r="F40" t="n">
         <v>170</v>
       </c>
-      <c r="E40" t="n">
-        <v>260</v>
-      </c>
-      <c r="F40" t="n">
-        <v>250</v>
-      </c>
       <c r="G40" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="H40" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J40" t="n">
-        <v>1390</v>
+        <v>1415</v>
       </c>
       <c r="K40" t="n">
-        <v>87.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Lileia Gonçalves Diotaiuti</t>
+          <t>Rita de Cássia Moreira de Souza</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>270</v>
+      </c>
+      <c r="C41" t="n">
+        <v>95</v>
+      </c>
+      <c r="D41" t="n">
+        <v>280</v>
+      </c>
+      <c r="E41" t="n">
+        <v>110</v>
+      </c>
+      <c r="F41" t="n">
         <v>400</v>
       </c>
-      <c r="C41" t="n">
-        <v>180</v>
-      </c>
-      <c r="D41" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" t="n">
-        <v>205</v>
-      </c>
-      <c r="F41" t="n">
-        <v>200</v>
-      </c>
       <c r="G41" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="H41" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1305</v>
+        <v>1405</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Rafaella Fortini Grenfell e Queiroz</t>
+          <t>Flora Satiko Kano</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="D42" t="n">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E42" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F42" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G42" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="H42" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="I42" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1195</v>
+        <v>1390</v>
       </c>
       <c r="K42" t="n">
-        <v>60.87</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Tânia Maria de Almeida Alves</t>
+          <t>Lileia Gonçalves Diotaiuti</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="C43" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="D43" t="n">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="F43" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="H43" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1185</v>
+        <v>1305</v>
       </c>
       <c r="K43" t="n">
-        <v>31.82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Érica Alessandra Rocha Alves</t>
+          <t>Rafaella Fortini Grenfell e Queiroz</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="E44" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G44" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="H44" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J44" t="n">
-        <v>965</v>
+        <v>1195</v>
       </c>
       <c r="K44" t="n">
-        <v>26.67</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Edelberto Santos Dias</t>
+          <t>Tânia Maria de Almeida Alves</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C45" t="n">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="D45" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E45" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G45" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H45" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>900</v>
+        <v>1185</v>
       </c>
       <c r="K45" t="n">
-        <v>29.41</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Daniel Moreira de Avelar</t>
+          <t>Rosiane Aparecida da Silva Pereira</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D46" t="n">
         <v>190</v>
       </c>
       <c r="E46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H46" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J46" t="n">
-        <v>895</v>
+        <v>980</v>
       </c>
       <c r="K46" t="n">
-        <v>52.94</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Alexandre de Magalhaes Vieira Machado</t>
+          <t>Érica Alessandra Rocha Alves</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="C47" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="D47" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="F47" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>875</v>
+        <v>965</v>
       </c>
       <c r="K47" t="n">
-        <v>25</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Erika Michalsky Monteiro</t>
+          <t>Edelberto Santos Dias</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2205,7 +2205,7 @@
         <v>170</v>
       </c>
       <c r="D48" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E48" t="n">
         <v>130</v>
@@ -2217,200 +2217,311 @@
         <v>80</v>
       </c>
       <c r="H48" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K48" t="n">
-        <v>42.86</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Carina Margonari de Souza</t>
+          <t>Daniel Moreira de Avelar</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>190</v>
+      </c>
+      <c r="E49" t="n">
         <v>100</v>
       </c>
-      <c r="D49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E49" t="n">
-        <v>80</v>
-      </c>
       <c r="F49" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="G49" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="H49" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>790</v>
+        <v>895</v>
       </c>
       <c r="K49" t="n">
-        <v>25</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Gil Araújo Ferreira</t>
+          <t>Alexandre de Magalhaes Vieira Machado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="C50" t="n">
+        <v>85</v>
+      </c>
+      <c r="D50" t="n">
+        <v>150</v>
+      </c>
+      <c r="E50" t="n">
         <v>90</v>
       </c>
-      <c r="D50" t="n">
-        <v>40</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>170</v>
       </c>
-      <c r="F50" t="n">
-        <v>250</v>
-      </c>
       <c r="G50" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>790</v>
+        <v>875</v>
       </c>
       <c r="K50" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Jaquelline Germano de Oliveira</t>
+          <t>Erika Michalsky Monteiro</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D51" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E51" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I51" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>28.57</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Soraya Torres Gaze Jangola</t>
+          <t>Carina Margonari de Souza</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E52" t="n">
         <v>80</v>
       </c>
       <c r="F52" t="n">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H52" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>540</v>
+        <v>790</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
+          <t>Álvaro Gil Araújo Ferreira</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>90</v>
+      </c>
+      <c r="D53" t="n">
+        <v>40</v>
+      </c>
+      <c r="E53" t="n">
+        <v>170</v>
+      </c>
+      <c r="F53" t="n">
+        <v>250</v>
+      </c>
+      <c r="G53" t="n">
+        <v>60</v>
+      </c>
+      <c r="H53" t="n">
+        <v>180</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>790</v>
+      </c>
+      <c r="K53" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Jaquelline Germano de Oliveira</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>160</v>
+      </c>
+      <c r="D54" t="n">
+        <v>60</v>
+      </c>
+      <c r="E54" t="n">
+        <v>290</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>140</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>80</v>
+      </c>
+      <c r="J54" t="n">
+        <v>730</v>
+      </c>
+      <c r="K54" t="n">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Soraya Torres Gaze Jangola</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>95</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>80</v>
+      </c>
+      <c r="F55" t="n">
+        <v>175</v>
+      </c>
+      <c r="G55" t="n">
+        <v>100</v>
+      </c>
+      <c r="H55" t="n">
+        <v>180</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>630</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Marco Antônio da Silva Campos</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B56" t="n">
         <v>60</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C56" t="n">
         <v>95</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>100</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F56" t="n">
         <v>140</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G56" t="n">
         <v>20</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H56" t="n">
         <v>80</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>495</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K56" t="n">
         <v>23.08</v>
       </c>
     </row>
